--- a/jpcore-r4/feature/swg2-ImagingStudy_Radiology/CodeSystem-jp-condition-severity-cs.xlsx
+++ b/jpcore-r4/feature/swg2-ImagingStudy_Radiology/CodeSystem-jp-condition-severity-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core Condition Severity</t>
+    <t>JP Core Condition Severity CodeSystem</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-22T11:10:21+00:00</t>
+    <t>2022-08-27T00:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Value Set (all codes)</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ConditionSeverity_VS</t>
   </si>
   <si>
     <t>Hierarchy</t>
@@ -417,46 +420,48 @@
       <c r="A16" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" t="s" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -474,51 +479,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2"/>
     </row>
